--- a/src/Images/svgs/orderList.xlsx
+++ b/src/Images/svgs/orderList.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>OrderNumber</t>
   </si>
@@ -31,7 +31,7 @@
     <t>OrderStatus</t>
   </si>
   <si>
-    <t>items</t>
+    <t>Items</t>
   </si>
   <si>
     <t>Address</t>
@@ -46,52 +46,13 @@
     <t>OrderPrice</t>
   </si>
   <si>
-    <t>W3H69G</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>July 29, 2024 | 7:40 AM</t>
-  </si>
-  <si>
-    <t>Rajesh Kumar</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>CANCELLED</t>
-  </si>
-  <si>
-    <t>{"itemsize":["5 kg"],"itemtitle":["चीनी LL, Sugar"]}</t>
-  </si>
-  <si>
-    <t>H.no. 112, Dhani Khan Bahadur, Hansi - Barwala Road, Barwala, Haryana</t>
-  </si>
-  <si>
-    <t>9992828349</t>
-  </si>
-  <si>
-    <t>TVMMMH</t>
-  </si>
-  <si>
-    <t>July 30, 2024 | 12:14 PM</t>
-  </si>
-  <si>
-    <t>NEW</t>
-  </si>
-  <si>
-    <t>{"itemsize":["1 bag"],"itemtitle":["हरियाणा गौरव खल "]}</t>
-  </si>
-  <si>
-    <t>LHBMQ8</t>
-  </si>
-  <si>
-    <t>ST24HZJ2MT</t>
-  </si>
-  <si>
-    <t>July 29, 2024 | 4:03 PM</t>
+    <t>HXZT9I</t>
+  </si>
+  <si>
+    <t>ST24KMW5QU</t>
+  </si>
+  <si>
+    <t>July 31, 2024 | 9:48 PM</t>
   </si>
   <si>
     <t>vasim</t>
@@ -103,7 +64,7 @@
     <t>DELIVERED</t>
   </si>
   <si>
-    <t>{"itemsize":["1 bag"],"itemtitle":["दूध रतन खल "]}</t>
+    <t>दूध रतन खल  - 1 bag</t>
   </si>
   <si>
     <t>xjdjsjs, Rishi Nagar, Hisar, Haryana</t>
@@ -115,130 +76,31 @@
     <t>6446688998</t>
   </si>
   <si>
-    <t>2M4IGF</t>
-  </si>
-  <si>
-    <t>ST24X1I7NC</t>
-  </si>
-  <si>
-    <t>July 29, 2024 | 5:35 PM</t>
-  </si>
-  <si>
-    <t>CONFIRMED</t>
-  </si>
-  <si>
-    <t>A1AQKD</t>
-  </si>
-  <si>
-    <t>ST24OQ8P64</t>
-  </si>
-  <si>
-    <t>July 29, 2024 | 1:31 PM</t>
-  </si>
-  <si>
-    <t>{"itemsize":["1"],"itemtitle":["टाइड सर्फ"]}</t>
-  </si>
-  <si>
-    <t>SobjCvznJmO3mWhOrLSFiVWwV1s2</t>
-  </si>
-  <si>
-    <t>WV31AS</t>
-  </si>
-  <si>
-    <t>ST24TTDIPF</t>
-  </si>
-  <si>
-    <t>July 29, 2024 | 10:22 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sandeep </t>
-  </si>
-  <si>
-    <t>{"itemsize":["1 bag"],"itemtitle":["लोकल बिनौला "]}</t>
-  </si>
-  <si>
-    <t>hisar, hisar, haryana</t>
-  </si>
-  <si>
-    <t>9876543100</t>
-  </si>
-  <si>
-    <t>DV8VPJ</t>
-  </si>
-  <si>
-    <t>ST24BS7JDM</t>
-  </si>
-  <si>
-    <t>July 28, 2024 | 11:07 PM</t>
-  </si>
-  <si>
-    <t>Joginder Saini</t>
-  </si>
-  <si>
-    <t>OUT_FOR_DELIVERY</t>
-  </si>
-  <si>
-    <t>{"itemsize":["5 bag"],"itemtitle":["दूध रतन खल "]}</t>
-  </si>
-  <si>
-    <t>#12, Rishi Nagar, Rishi Nagar, Bus Stand Road, Hisar, Haryana</t>
-  </si>
-  <si>
-    <t>3s55nNXuF6P6JZigo3Is5R5CRK83</t>
-  </si>
-  <si>
-    <t>8950402201</t>
-  </si>
-  <si>
-    <t>WVM60Y</t>
-  </si>
-  <si>
-    <t>July 29, 2024 | 8:50 AM</t>
-  </si>
-  <si>
-    <t>8VLPI0</t>
-  </si>
-  <si>
-    <t>CIO857</t>
-  </si>
-  <si>
-    <t>July 29, 2024 | 9:44 AM</t>
-  </si>
-  <si>
-    <t>{"itemsize":["1 "],"itemtitle":["गुड़ पेटी, Gud "]}</t>
-  </si>
-  <si>
-    <t>AI4CIH</t>
-  </si>
-  <si>
-    <t>July 29, 2024 | 10:10 AM</t>
-  </si>
-  <si>
-    <t>C0CPWI</t>
-  </si>
-  <si>
-    <t>July 29, 2024 | 10:02 AM</t>
-  </si>
-  <si>
-    <t>3QNCY3</t>
-  </si>
-  <si>
-    <t>ST24K2WXG5</t>
-  </si>
-  <si>
-    <t>July 28, 2024 | 11:41 PM</t>
-  </si>
-  <si>
-    <t>8901111444</t>
-  </si>
-  <si>
-    <t>B0ZYIC</t>
-  </si>
-  <si>
-    <t>ST24QULSVU</t>
-  </si>
-  <si>
-    <t>July 29, 2024 | 10:45 AM</t>
+    <t>H8MUGJ</t>
+  </si>
+  <si>
+    <t>ST24RCA1DO</t>
+  </si>
+  <si>
+    <t>July 31, 2024 | 10:17 PM</t>
+  </si>
+  <si>
+    <t>YAD837</t>
+  </si>
+  <si>
+    <t>ST2460WQCN</t>
+  </si>
+  <si>
+    <t>July 31, 2024 | 9:52 PM</t>
+  </si>
+  <si>
+    <t>GHTY8V</t>
+  </si>
+  <si>
+    <t>ST24TPNZLS</t>
+  </si>
+  <si>
+    <t>July 31, 2024 | 10:15 PM</t>
   </si>
 </sst>
 </file>
@@ -622,13 +484,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K5"/>
   <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="50" customWidth="1"/>
+    <col min="4" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
     <col min="8" max="8" width="70" customWidth="1"/>
     <col min="9" max="9" width="35" customWidth="1"/>
     <col min="10" max="11" width="15" customWidth="1"/>
@@ -694,22 +557,25 @@
       <c r="H2" t="s">
         <v>18</v>
       </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2">
-        <v>225</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -718,16 +584,19 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
       </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3">
         <v>2050</v>
@@ -744,25 +613,25 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="K4">
         <v>2050</v>
@@ -770,13 +639,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -785,7 +654,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -793,346 +662,14 @@
       <c r="H5" t="s">
         <v>18</v>
       </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8">
-        <v>10150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12">
         <v>2050</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" t="s">
-        <v>72</v>
-      </c>
-      <c r="K14">
-        <v>10150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" t="s">
-        <v>72</v>
-      </c>
-      <c r="K15">
-        <v>10150</v>
       </c>
     </row>
   </sheetData>
